--- a/notebooks/merged_updated_1009.xlsx
+++ b/notebooks/merged_updated_1009.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ119"/>
+  <dimension ref="A1:BG119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,7 +691,42 @@
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
+          <t>within_3miles_library</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>within_5miles_library</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
           <t>within_1mile_park</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>within_3miles_park</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>within_5miles_park</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>within_1mile_bus</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>within_3miles_bus</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>within_5miles_bus</t>
         </is>
       </c>
     </row>
@@ -853,7 +888,42 @@
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -1020,6 +1090,41 @@
           <t>no</t>
         </is>
       </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1186,6 +1291,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1347,7 +1487,42 @@
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -1514,6 +1689,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1678,6 +1888,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1839,7 +2084,42 @@
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB8" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2283,42 @@
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB9" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD9" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2482,42 @@
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB10" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -2334,6 +2684,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2495,7 +2880,42 @@
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB12" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -2659,7 +3079,42 @@
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB13" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -2826,6 +3281,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD14" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2987,7 +3477,42 @@
       </c>
       <c r="AZ15" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA15" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB15" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BD15" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG15" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3676,42 @@
       </c>
       <c r="AZ16" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB16" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -3315,7 +3875,42 @@
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB17" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF17" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG17" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -3479,7 +4074,42 @@
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA18" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB18" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC18" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD18" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE18" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF18" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG18" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -3646,6 +4276,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE19" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG19" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3810,6 +4475,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG20" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3969,7 +4669,42 @@
       </c>
       <c r="AZ21" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA21" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB21" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD21" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE21" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF21" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG21" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -4136,6 +4871,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA22" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB22" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC22" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD22" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE22" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF22" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG22" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4297,7 +5067,42 @@
       </c>
       <c r="AZ23" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA23" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB23" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC23" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD23" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE23" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF23" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG23" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -4459,7 +5264,42 @@
       </c>
       <c r="AZ24" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA24" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB24" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC24" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD24" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE24" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF24" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG24" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -4623,7 +5463,42 @@
       </c>
       <c r="AZ25" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA25" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB25" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC25" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD25" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE25" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF25" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG25" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -4785,7 +5660,42 @@
       </c>
       <c r="AZ26" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA26" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB26" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC26" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD26" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE26" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF26" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG26" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -4949,7 +5859,42 @@
       </c>
       <c r="AZ27" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA27" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB27" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC27" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD27" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE27" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF27" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG27" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -5113,7 +6058,42 @@
       </c>
       <c r="AZ28" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA28" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB28" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC28" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BD28" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE28" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF28" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG28" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -5280,6 +6260,41 @@
           <t>no</t>
         </is>
       </c>
+      <c r="BA29" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB29" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC29" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD29" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE29" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF29" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG29" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -5439,7 +6454,42 @@
       </c>
       <c r="AZ30" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA30" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB30" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC30" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BD30" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE30" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF30" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG30" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -5603,7 +6653,42 @@
       </c>
       <c r="AZ31" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA31" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB31" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC31" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD31" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE31" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF31" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG31" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -5765,7 +6850,42 @@
       </c>
       <c r="AZ32" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA32" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB32" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC32" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD32" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE32" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF32" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG32" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -5927,7 +7047,42 @@
       </c>
       <c r="AZ33" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA33" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB33" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC33" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD33" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE33" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF33" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG33" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -6094,6 +7249,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA34" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB34" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC34" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD34" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE34" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF34" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG34" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -6255,7 +7445,42 @@
       </c>
       <c r="AZ35" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA35" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB35" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC35" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD35" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE35" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF35" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG35" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -6422,6 +7647,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA36" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB36" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC36" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD36" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE36" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF36" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG36" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -6586,6 +7846,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA37" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB37" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC37" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD37" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE37" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF37" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG37" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -6748,6 +8043,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA38" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB38" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC38" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD38" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE38" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF38" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG38" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -6912,6 +8242,41 @@
           <t>no</t>
         </is>
       </c>
+      <c r="BA39" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BB39" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC39" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD39" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE39" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF39" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG39" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -7076,6 +8441,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA40" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB40" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC40" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD40" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE40" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF40" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG40" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -7240,6 +8640,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA41" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB41" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC41" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD41" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE41" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF41" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG41" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -7401,7 +8836,42 @@
       </c>
       <c r="AZ42" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA42" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB42" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC42" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD42" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE42" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF42" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG42" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -7563,7 +9033,42 @@
       </c>
       <c r="AZ43" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA43" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB43" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC43" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD43" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE43" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF43" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG43" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -7730,6 +9235,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA44" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB44" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC44" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD44" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE44" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF44" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG44" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -7891,7 +9431,42 @@
       </c>
       <c r="AZ45" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA45" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB45" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC45" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD45" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE45" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF45" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG45" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -8053,7 +9628,42 @@
       </c>
       <c r="AZ46" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA46" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB46" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC46" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD46" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE46" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF46" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG46" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -8220,6 +9830,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA47" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB47" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC47" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD47" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE47" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF47" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG47" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -8383,7 +10028,42 @@
       </c>
       <c r="AZ48" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA48" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB48" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC48" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD48" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE48" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF48" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG48" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -8547,7 +10227,42 @@
       </c>
       <c r="AZ49" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA49" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB49" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC49" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD49" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE49" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF49" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG49" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -8711,7 +10426,42 @@
       </c>
       <c r="AZ50" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA50" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB50" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC50" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD50" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE50" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF50" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG50" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -8873,7 +10623,42 @@
       </c>
       <c r="AZ51" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA51" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB51" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC51" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD51" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE51" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF51" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG51" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -9040,6 +10825,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA52" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB52" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC52" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD52" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE52" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF52" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG52" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -9204,6 +11024,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA53" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB53" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC53" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD53" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE53" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF53" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG53" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -9368,6 +11223,41 @@
           <t>no</t>
         </is>
       </c>
+      <c r="BA54" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB54" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC54" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD54" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE54" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF54" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BG54" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -9529,7 +11419,42 @@
       </c>
       <c r="AZ55" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA55" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB55" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC55" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD55" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE55" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF55" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG55" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -9693,7 +11618,42 @@
       </c>
       <c r="AZ56" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA56" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB56" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC56" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD56" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE56" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF56" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG56" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -9855,7 +11815,42 @@
       </c>
       <c r="AZ57" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA57" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB57" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC57" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BD57" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE57" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF57" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG57" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -10019,7 +12014,42 @@
       </c>
       <c r="AZ58" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA58" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB58" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC58" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD58" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE58" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF58" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG58" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -10186,6 +12216,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA59" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB59" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC59" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD59" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE59" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF59" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG59" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -10350,6 +12415,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA60" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB60" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC60" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD60" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE60" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF60" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG60" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -10514,6 +12614,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA61" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB61" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC61" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD61" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE61" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF61" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG61" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -10678,6 +12813,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA62" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB62" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC62" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD62" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE62" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF62" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG62" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -10839,7 +13009,42 @@
       </c>
       <c r="AZ63" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA63" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB63" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC63" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD63" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE63" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF63" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG63" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -11003,7 +13208,42 @@
       </c>
       <c r="AZ64" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA64" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB64" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC64" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD64" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE64" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF64" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG64" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -11165,7 +13405,42 @@
       </c>
       <c r="AZ65" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA65" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB65" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC65" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD65" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE65" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF65" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG65" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -11329,7 +13604,42 @@
       </c>
       <c r="AZ66" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA66" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB66" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC66" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD66" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE66" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF66" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG66" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -11496,6 +13806,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA67" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB67" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC67" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD67" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE67" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF67" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG67" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -11660,6 +14005,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA68" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB68" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC68" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD68" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE68" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF68" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG68" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -11821,7 +14201,42 @@
       </c>
       <c r="AZ69" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA69" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB69" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC69" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD69" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE69" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF69" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG69" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -11983,6 +14398,41 @@
       </c>
       <c r="AZ70" t="inlineStr">
         <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BA70" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB70" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC70" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD70" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE70" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF70" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG70" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
@@ -12150,6 +14600,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA71" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB71" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC71" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD71" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE71" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF71" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG71" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -12316,6 +14801,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA72" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB72" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC72" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD72" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE72" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF72" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG72" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -12482,6 +15002,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA73" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB73" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC73" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD73" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE73" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF73" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG73" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -12648,6 +15203,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA74" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB74" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC74" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD74" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE74" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF74" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG74" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -12811,7 +15401,42 @@
       </c>
       <c r="AZ75" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA75" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB75" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC75" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD75" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE75" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF75" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG75" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -12977,7 +15602,42 @@
       </c>
       <c r="AZ76" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA76" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB76" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC76" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD76" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE76" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF76" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG76" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -13143,7 +15803,42 @@
       </c>
       <c r="AZ77" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA77" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB77" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC77" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD77" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE77" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF77" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG77" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -13309,7 +16004,42 @@
       </c>
       <c r="AZ78" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA78" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB78" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC78" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD78" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE78" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF78" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG78" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -13478,6 +16208,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA79" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB79" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC79" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD79" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE79" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF79" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG79" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -13641,7 +16406,42 @@
       </c>
       <c r="AZ80" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA80" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB80" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC80" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BD80" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE80" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF80" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG80" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -13807,7 +16607,42 @@
       </c>
       <c r="AZ81" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA81" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB81" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC81" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD81" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE81" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF81" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG81" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -13976,6 +16811,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA82" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB82" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC82" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD82" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE82" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF82" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG82" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -14139,7 +17009,42 @@
       </c>
       <c r="AZ83" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA83" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB83" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC83" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD83" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE83" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF83" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG83" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -14308,6 +17213,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA84" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB84" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC84" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD84" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE84" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF84" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG84" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -14442,6 +17382,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA85" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB85" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC85" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD85" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE85" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF85" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG85" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -14605,7 +17580,42 @@
       </c>
       <c r="AZ86" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA86" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB86" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC86" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD86" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE86" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF86" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG86" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -14771,7 +17781,42 @@
       </c>
       <c r="AZ87" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA87" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB87" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC87" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD87" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE87" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF87" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG87" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -14940,6 +17985,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA88" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB88" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC88" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD88" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE88" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF88" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG88" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -15106,6 +18186,41 @@
           <t>no</t>
         </is>
       </c>
+      <c r="BA89" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB89" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC89" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD89" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE89" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF89" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG89" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -15269,7 +18384,42 @@
       </c>
       <c r="AZ90" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA90" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB90" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC90" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD90" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE90" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF90" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG90" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -15435,7 +18585,42 @@
       </c>
       <c r="AZ91" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA91" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB91" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC91" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD91" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE91" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF91" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG91" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -15601,7 +18786,42 @@
       </c>
       <c r="AZ92" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA92" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB92" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC92" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD92" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE92" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF92" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG92" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -15731,7 +18951,42 @@
       </c>
       <c r="AZ93" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA93" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB93" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC93" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD93" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE93" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF93" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG93" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -15897,7 +19152,42 @@
       </c>
       <c r="AZ94" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA94" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB94" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC94" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BD94" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE94" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF94" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG94" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -16066,6 +19356,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA95" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB95" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC95" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD95" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE95" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF95" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG95" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -16232,6 +19557,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA96" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB96" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC96" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD96" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE96" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF96" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG96" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -16395,7 +19755,42 @@
       </c>
       <c r="AZ97" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA97" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB97" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC97" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD97" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE97" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF97" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG97" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -16564,6 +19959,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA98" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB98" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC98" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD98" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE98" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF98" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG98" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -16727,7 +20157,42 @@
       </c>
       <c r="AZ99" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA99" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB99" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC99" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD99" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE99" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF99" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG99" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -16893,7 +20358,42 @@
       </c>
       <c r="AZ100" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA100" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB100" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC100" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD100" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE100" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF100" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG100" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -17059,7 +20559,42 @@
       </c>
       <c r="AZ101" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA101" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB101" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC101" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD101" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE101" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF101" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG101" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -17278,6 +20813,41 @@
           <t>no</t>
         </is>
       </c>
+      <c r="BA102" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB102" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC102" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD102" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE102" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF102" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG102" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -17494,6 +21064,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA103" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB103" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC103" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD103" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE103" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF103" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG103" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -17707,7 +21312,42 @@
       </c>
       <c r="AZ104" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA104" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB104" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC104" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD104" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE104" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF104" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG104" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -17926,6 +21566,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA105" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB105" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC105" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD105" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE105" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF105" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG105" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -18139,7 +21814,42 @@
       </c>
       <c r="AZ106" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA106" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB106" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC106" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD106" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE106" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF106" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG106" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -18355,7 +22065,42 @@
       </c>
       <c r="AZ107" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA107" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB107" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC107" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD107" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE107" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF107" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG107" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -18539,7 +22284,42 @@
       </c>
       <c r="AZ108" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA108" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB108" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC108" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD108" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE108" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF108" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG108" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -18758,6 +22538,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA109" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB109" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC109" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD109" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE109" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF109" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG109" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -18971,7 +22786,42 @@
       </c>
       <c r="AZ110" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA110" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB110" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC110" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD110" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE110" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF110" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG110" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -19187,7 +23037,42 @@
       </c>
       <c r="AZ111" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA111" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB111" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC111" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD111" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE111" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF111" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG111" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -19404,6 +23289,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA112" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB112" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC112" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD112" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE112" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF112" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG112" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -19617,7 +23537,42 @@
       </c>
       <c r="AZ113" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA113" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB113" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC113" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD113" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE113" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF113" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG113" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -19804,6 +23759,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA114" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB114" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC114" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD114" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE114" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF114" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG114" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -20016,6 +24006,41 @@
         </is>
       </c>
       <c r="AZ115" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA115" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB115" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC115" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD115" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE115" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF115" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG115" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
@@ -20221,7 +24246,42 @@
       </c>
       <c r="AZ116" t="inlineStr">
         <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BA116" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB116" t="inlineStr">
+        <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BC116" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD116" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE116" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF116" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG116" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
@@ -20440,6 +24500,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA117" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB117" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC117" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD117" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE117" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF117" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG117" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -20656,6 +24751,41 @@
           <t>yes</t>
         </is>
       </c>
+      <c r="BA118" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB118" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BC118" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BD118" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE118" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BF118" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG118" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -20870,6 +25000,41 @@
       <c r="AZ119" t="inlineStr">
         <is>
           <t>no</t>
+        </is>
+      </c>
+      <c r="BA119" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BB119" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BC119" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BD119" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BE119" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="BF119" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="BG119" t="inlineStr">
+        <is>
+          <t>yes</t>
         </is>
       </c>
     </row>
